--- a/folder_out/catàleg_REF_MENLEX.xlsx
+++ b/folder_out/catàleg_REF_MENLEX.xlsx
@@ -486,7 +486,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>angiogammagrafia ||| angiografia per raigs gamma</t>
@@ -522,7 +524,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>angiogammagrafia cerebral ||| angiografia per raigs gamma cerebral</t>
@@ -558,7 +562,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>angiogammagrafia hepatoesplènica ||| angiografia per raigs gamma hepatoesplènica</t>
@@ -594,7 +600,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>angiogammagrafia renal ||| angiografia per raigs gamma renal</t>
@@ -630,7 +638,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>angiogammagrafia testicular ||| angiografia per raigs gamma testicular</t>
@@ -666,7 +676,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>captació tiroidal del iode</t>
@@ -698,7 +710,9 @@
       <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>cinètica eritrocitària</t>
@@ -730,7 +744,9 @@
       <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>cinètica plaquetària</t>
@@ -762,7 +778,9 @@
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>cinètica tiroidal del iode</t>
@@ -794,7 +812,9 @@
       <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>cisternogammagrafia</t>
@@ -826,7 +846,9 @@
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>cistogammagrafia directa ||| cistografia per raigs gamma directa</t>
@@ -862,7 +884,9 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>cistogammagrafia indirecta ||| cistografia per raigs gamma indirecta</t>
@@ -898,7 +922,9 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>densitometria de cos sencer o múltiple selectiva</t>
@@ -930,7 +956,9 @@
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>densitometria selectiva</t>
@@ -962,7 +990,9 @@
       <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>detecció gammagràfica del gangli sentinella</t>
@@ -994,7 +1024,9 @@
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>detecció isotòpica intraoperatòria de tumors</t>
@@ -1026,7 +1058,9 @@
       <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>detecció isotòpica intraoperatòria del gangli sentinella</t>
@@ -1058,7 +1092,9 @@
       <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb ⁹⁹mTc(V)-àcid dimercaptosuccínic ||| estudi gammagràfic de cos sencer amb ⁹⁹mTc(V)-DMSA</t>
@@ -1094,7 +1130,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb ¹²³I</t>
@@ -1126,7 +1164,9 @@
       <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb ¹²³ o ¹³¹I després de l'administració d'hormona alliberadora d'hormona estimulant de la tiroide ||| estudi gammagràfic de cos sencer amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de tirotropina ||| estudi gammagràfic de cos sencer amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de TSH ||| estudi gammagràfic de cos sencer amb ¹²³I o ¹³¹I després de l'administració de protirelina</t>
@@ -1162,7 +1202,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb ¹²³I-metaiodobencilguanidina o  ¹³¹I-metaiodobencilguanidina ||| estudi gammagràfic de cos sencer amb ¹²³I-MIBG o  ¹³¹I-MIBG</t>
@@ -1198,7 +1240,9 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb  ¹³¹II</t>
@@ -1230,7 +1274,9 @@
       <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb altres anticossos monoclonals</t>
@@ -1262,7 +1308,9 @@
       <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb anticossos monoclonals</t>
@@ -1294,7 +1342,9 @@
       <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb anticossos monoclonals anti-antigen carcinoembrionari ||| estudi gammagràfic de cos sencer amb anticossos monoclonals anti-ACE</t>
@@ -1330,7 +1380,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb citrat de ⁶⁷Ga en hematologia</t>
@@ -1362,7 +1414,9 @@
       <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer amb clorur de ²º¹Tl</t>
@@ -1394,7 +1448,9 @@
       <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>estudi gammagràfic de cos sencer dels receptors de la somatostatina en el sistema endocrí</t>
@@ -1426,7 +1482,9 @@
       <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>estudi gammagràfic oncològic amb ⁹⁹ͫ  ͫTc-metoxiisobutilisonitril ||| estudi gammagràfic oncològic amb ⁹⁹ͫ  ͫTc-MIBI</t>
@@ -1462,7 +1520,9 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>estudi gammagràfic oncològic amb ⁹⁹  ͫTc-tetrofosmina</t>
@@ -1494,7 +1554,9 @@
       <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>estudi gammagràfic oncològic amb citrat de ⁶⁷Ga</t>
@@ -1526,7 +1588,9 @@
       <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>estudi gammagràfic oncològic amb iodur de sodi de ¹³¹I</t>
@@ -1558,7 +1622,9 @@
       <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>estudi gammagràfic oncològic amb metaiodobencilguanidina ||| estudi gammagràfic oncològic amb MIBG</t>
@@ -1594,7 +1660,9 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>estudi gammagràfic oncològic amb receptors de la somatostatina</t>
@@ -1626,7 +1694,9 @@
       <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>estudi gammagràfic ossi de cos complet</t>
@@ -1658,7 +1728,9 @@
       <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>estudi radioisotòpic de la permeabilitat intestinal</t>
@@ -1690,7 +1762,9 @@
       <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>filtració glomerular</t>
@@ -1722,7 +1796,9 @@
       <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>flebogammagrafia directa</t>
@@ -1754,7 +1830,9 @@
       <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>flebogammagrafia indirecta</t>
@@ -1786,7 +1864,9 @@
       <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>gammagrafia amb anticossos monoclonals anti-antigen carcinoembrionari ||| gammagrafia amb anticossos monoclonals anti-ACE</t>
@@ -1822,7 +1902,9 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>gammagrafia amb citrat de ⁶⁷Ga en infecció</t>
@@ -1854,7 +1936,9 @@
       <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>gammagrafia amb immunoglobulines en infecció</t>
@@ -1886,7 +1970,9 @@
       <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>gammagrafia amb leucòcits marcats en infecció</t>
@@ -1918,7 +2004,9 @@
       <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>gammagrafia amb leucòcits marcats en malaltia inflamatòria intestinal</t>
@@ -1950,10 +2038,12 @@
       <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>gammagrafia cerebral ||| gammaencefalografia</t>
+          <t>gammagrafia cerebral ||| encefalografia per raigs gamma ||| encefalometria isotòpica ||| gammaencefalografia</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1969,7 +2059,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>gammagrafia cerebral ||| gammaencefalografia</t>
+          <t>gammagrafia cerebral ||| encefalografia per raigs gamma ||| encefalometria isotòpica ||| gammaencefalografia</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1981,12 +2071,14 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>gammaencefalografia</t>
+          <t>encefalografia per raigs gamma ||| encefalometria isotòpica ||| gammaencefalografia</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>gammagrafia d'hemangiomes</t>
@@ -2018,7 +2110,9 @@
       <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>gammagrafia d'hemorràgia digestiva amb col·loides</t>
@@ -2050,7 +2144,9 @@
       <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>gammagrafia d'hemorràgia digestiva amb hematies marcades</t>
@@ -2082,7 +2178,9 @@
       <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>gammagrafia de derivació del líquid cefalorraquidi ||| gammagrafia de derivació del LCR</t>
@@ -2118,7 +2216,9 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>gammagrafia de derivacions cardíaques</t>
@@ -2150,7 +2250,9 @@
       <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>gammagrafia de derivacions dreta-esquerra</t>
@@ -2182,7 +2284,9 @@
       <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>gammagrafia de derivacions intestinals</t>
@@ -2214,7 +2318,9 @@
       <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>gammagrafia de derivacions peritoneals</t>
@@ -2246,7 +2352,9 @@
       <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>gammagrafia de derivacions vasculars</t>
@@ -2278,10 +2386,12 @@
       <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>gammagrafia de la glàndula paratiroide ||| gammagrafia paratiroidal</t>
+          <t>gammagrafia de la glàndula paratiroide ||| gammagrafia de la paratiroide ||| gammagrafia paratiroidal</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2297,7 +2407,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>gammagrafia de la glàndula paratiroide ||| gammagrafia paratiroidal</t>
+          <t>gammagrafia de la glàndula paratiroide ||| gammagrafia de la paratiroide ||| gammagrafia paratiroidal</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2309,15 +2419,17 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>gammagrafia paratiroidal</t>
+          <t>gammagrafia de la paratiroide ||| gammagrafia paratiroidal</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gammagrafia de la glàndula tiroide ||| gammagrafia tiroidal</t>
+          <t>gammagrafia de la glàndula tiroide ||| gammagrafia de la tiroide ||| gammagrafia tiroidal</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2333,7 +2445,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>gammagrafia de la glàndula tiroide ||| gammagrafia tiroidal</t>
+          <t>gammagrafia de la glàndula tiroide ||| gammagrafia de la tiroide ||| gammagrafia tiroidal</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2345,12 +2457,14 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>gammagrafia tiroidal</t>
+          <t>gammagrafia de la tiroide ||| gammagrafia tiroidal</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>gammagrafia de la medul·la eritropoètica</t>
@@ -2382,7 +2496,9 @@
       <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>gammagrafia de la medul·la granulopoètica</t>
@@ -2414,7 +2530,9 @@
       <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>gammagrafia de la medul·la macrofàgica</t>
@@ -2446,7 +2564,9 @@
       <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>gammagrafia de la mucosa gàstrica ectòpica</t>
@@ -2478,7 +2598,9 @@
       <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>gammagrafia de la trombosi</t>
@@ -2510,7 +2632,9 @@
       <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>gammagrafia de mort cerebral amb traçadors de flux sanguini</t>
@@ -2542,7 +2666,9 @@
       <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>gammagrafia del buidament gàstric</t>
@@ -2574,7 +2700,9 @@
       <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>gammagrafia del còrtex suprarenal ||| gammagrafia corticosuprarenal</t>
@@ -2610,7 +2738,9 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>gammagrafia del còrtex suprarenal després d'una aturada ||| gammagrafia corticosuprarenal després d'una aturada</t>
@@ -2646,7 +2776,9 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>gammagrafia del reflux gastroentèric</t>
@@ -2678,7 +2810,9 @@
       <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>gammagrafia del reflux gastroesofàgic</t>
@@ -2710,10 +2844,12 @@
       <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>gammagrafia del trànsit esofàgic ||| gammagrafia del trànsit esofagogastricoduodenal</t>
+          <t>gammagrafia del trànsit esofàgic ||| gammagrafia del TEGD ||| gammagrafia del trànsit esofagogàstric ||| gammagrafia del trànsit esofagogastricoduodenal</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2729,7 +2865,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>gammagrafia del trànsit esofàgic ||| gammagrafia del trànsit esofagogastricoduodenal</t>
+          <t>gammagrafia del trànsit esofàgic ||| gammagrafia del TEGD ||| gammagrafia del trànsit esofagogàstric ||| gammagrafia del trànsit esofagogastricoduodenal</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2741,12 +2877,14 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>gammagrafia del trànsit esofagogastricoduodenal</t>
+          <t>gammagrafia del TEGD ||| gammagrafia del trànsit esofagogàstric ||| gammagrafia del trànsit esofagogastricoduodenal</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>gammagrafia del trànsit intestinal</t>
@@ -2778,7 +2916,9 @@
       <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>gammagrafia dels plexes coroides</t>
@@ -2810,7 +2950,9 @@
       <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>gammagrafia esplènica amb col·loides</t>
@@ -2842,7 +2984,9 @@
       <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>gammagrafia esplènica amb hematies desnaturalitzades</t>
@@ -2874,7 +3018,9 @@
       <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>gammagrafia hepàtica de perfusió regional (microesferes)</t>
@@ -2906,7 +3052,9 @@
       <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>gammagrafia hepatobiliar</t>
@@ -2938,7 +3086,9 @@
       <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>gammagrafia hepatobiliar després d'una estimulació fisiològica</t>
@@ -2970,7 +3120,9 @@
       <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>gammagrafia hepatobiliar després d'una intervenció farmacològica</t>
@@ -3002,7 +3154,9 @@
       <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>gammagrafia hepatoesplènica</t>
@@ -3034,7 +3188,9 @@
       <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca amb pirofosfats</t>
@@ -3066,7 +3222,9 @@
       <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca d'innervació</t>
@@ -3098,7 +3256,9 @@
       <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca de perfusió (en repòs)</t>
@@ -3130,7 +3290,9 @@
       <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca de perfusió després d'una estimulació fisiològica</t>
@@ -3162,7 +3324,9 @@
       <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca de perfusió després d'una intervenció farmacològica (adenosina)</t>
@@ -3194,7 +3358,9 @@
       <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole)</t>
@@ -3226,7 +3392,9 @@
       <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina)</t>
@@ -3258,7 +3426,9 @@
       <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>gammagrafia miocardíaca de perfusió després d'una reinjecció</t>
@@ -3290,7 +3460,9 @@
       <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>gammagrafia òssia amb citrat de 67Ga</t>
@@ -3322,7 +3494,9 @@
       <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>gammagrafia òssia amb leucòcits marcats in vitro</t>
@@ -3354,7 +3528,9 @@
       <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>gammagrafia òssia amb leucòcits marcats in vivo</t>
@@ -3386,7 +3562,9 @@
       <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>gammagrafia òssia selectiva en dues fases</t>
@@ -3418,7 +3596,9 @@
       <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>gammagrafia òssia selectiva en tres fases</t>
@@ -3450,7 +3630,9 @@
       <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>gammagrafia pulmonar amb citrat de 67Ga</t>
@@ -3482,7 +3664,9 @@
       <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>gammagrafia pulmonar de perfusió</t>
@@ -3514,7 +3698,9 @@
       <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>gammagrafia pulmonar de ventilació</t>
@@ -3546,7 +3732,9 @@
       <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>gammagrafia pulmonar dels receptors de la somatostatina</t>
@@ -3578,7 +3766,9 @@
       <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>gammagrafia renal</t>
@@ -3610,7 +3800,9 @@
       <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>gammagrafia renal amb plaquetes marcades</t>
@@ -3642,7 +3834,9 @@
       <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>gammagrafia salival</t>
@@ -3674,7 +3868,9 @@
       <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>gammagrafia suprarenal medul·lar</t>
@@ -3706,7 +3902,9 @@
       <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>limfogammagrafia</t>
@@ -3738,7 +3936,9 @@
       <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>malabsorció de sals biliars</t>
@@ -3770,7 +3970,9 @@
       <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>mamogammagrafia isotòpica</t>
@@ -3802,7 +4004,9 @@
       <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>prova de l'alè amb aminofenazona ||| prova de l'alè amb aminopirina</t>
@@ -3838,7 +4042,9 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr"/>
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>prova de l'alè amb colquicina</t>
@@ -3870,7 +4076,9 @@
       <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>prova de l'alè amb trioleïna</t>
@@ -3902,7 +4110,9 @@
       <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>prova de l'alè amb urea</t>
@@ -3934,7 +4144,9 @@
       <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>quantificació radioisotòpica de la cinètica ciliar</t>
@@ -3966,7 +4178,9 @@
       <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>quantificació radioisotòpica de la depuració alveolocapil·lar</t>
@@ -3998,7 +4212,9 @@
       <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>quantificació radioisotòpica de la pèrdua digestiva de proteïnes</t>
@@ -4030,7 +4246,9 @@
       <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>quantificació radioisotòpica de sang en femta</t>
@@ -4062,7 +4280,9 @@
       <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>rastreig gammagràfic amb immunoglobulines ||| escaneig gammagràfic amb immunoglobulines</t>
@@ -4098,7 +4318,9 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>renograma ||| renocistograma</t>
@@ -4134,7 +4356,9 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>renograma diürètic ||| renocistograma diürètic</t>
@@ -4170,7 +4394,9 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>renograma per a després de l'administració d'un inhibidor de l'enzim conversiu de l'angiotensina ||| renocistograma per a després de l'administració d'un IECA ||| renocistograma per a després de l'administració d'un inhibidor de l'enzim conversiu de l'angiotensina ||| renograma per a després de l'administració d'un IECA</t>
@@ -4206,7 +4432,9 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>sinoviortesi radioisotòpica amb itri</t>
@@ -4238,7 +4466,9 @@
       <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>sinoviortesi radioisotòpica amb reni</t>
@@ -4270,7 +4500,9 @@
       <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>taxa d'extracció tubular renal</t>
@@ -4302,7 +4534,9 @@
       <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I ||| SPECT/TAC amb ¹²³I ||| SPECT/TC amb ¹²³I</t>
@@ -4338,7 +4572,9 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora d'hormona estimulant de la tiroide ||| tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de tirotropina ||| tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de TSH ||| tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I o ¹³¹I després de l'administració de protirelina ||| SPECT/TAC amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora d'hormona estimulant de la tiroide ||| SPECT/TAC amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de TSH ||| SPECT/TAC amb ¹²³I o ¹³¹I després de l'administració de protirelina ||| SPECT/TC amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora d'hormona estimulant de la tiroide ||| SPECT/TC amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de tirotropina ||| SPECT/TC amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de TSH ||| SPECT/TC amb ¹²³I o ¹³¹I després de l'administració de protirelina</t>
@@ -4374,10 +4610,12 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I-metaiodobencilguanidina o ¹³¹I-metaiodobencilguanidina ||| SPECT/TC amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
+          <t>tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I-metaiodobencilguanidina o ¹³¹I-metaiodobencilguanidina ||| SPECT/TAC amb ¹²³I-MIBG o ¹³¹I-MIBG ||| SPECT/TC amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4393,7 +4631,7 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I-metaiodobencilguanidina o ¹³¹I-metaiodobencilguanidina ||| SPECT/TC amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
+          <t>tomografia computada per emissió de fotó simple / tomografia computada amb ¹²³I-metaiodobencilguanidina o ¹³¹I-metaiodobencilguanidina ||| SPECT/TAC amb ¹²³I-MIBG o ¹³¹I-MIBG ||| SPECT/TC amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -4405,12 +4643,14 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>SPECT/TC amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
+          <t>SPECT/TAC amb ¹²³I-MIBG o ¹³¹I-MIBG ||| SPECT/TC amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada amb anticossos monoclonals anti-antigen carcinoembrionari ||| SPECT/TAC amb anticossos monoclonals anti-ACE ||| SPECT/TC amb anticossos monoclonals anti-ACE</t>
@@ -4446,10 +4686,12 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple / tomografia computada amb leucòcits marcats en malaltia inflamatòria intestinal ||| SPECT/TC amb leucòcits marcats en malaltia inflamatòria intestinal</t>
+          <t>tomografia computada per emissió de fotó simple / tomografia computada amb leucòcits marcats en malaltia inflamatòria intestinal ||| SPECT/TAC amb leucòcits marcats en malaltia inflamatòria intestinal ||| SPECT/TC amb leucòcits marcats en malaltia inflamatòria intestinal</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4465,7 +4707,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple / tomografia computada amb leucòcits marcats en malaltia inflamatòria intestinal ||| SPECT/TC amb leucòcits marcats en malaltia inflamatòria intestinal</t>
+          <t>tomografia computada per emissió de fotó simple / tomografia computada amb leucòcits marcats en malaltia inflamatòria intestinal ||| SPECT/TAC amb leucòcits marcats en malaltia inflamatòria intestinal ||| SPECT/TC amb leucòcits marcats en malaltia inflamatòria intestinal</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -4477,15 +4719,17 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>SPECT/TC amb leucòcits marcats en malaltia inflamatòria intestinal</t>
+          <t>SPECT/TAC amb leucòcits marcats en malaltia inflamatòria intestinal ||| SPECT/TC amb leucòcits marcats en malaltia inflamatòria intestinal</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral amb traçadors d'afinitat tumoral ||| SPECT/TC cerebral amb traçadors d'afinitat tumoral</t>
+          <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral amb traçadors d'afinitat tumoral ||| SPECT/TAC cerebral amb traçadors d'afinitat tumoral ||| SPECT/TC cerebral amb traçadors d'afinitat tumoral</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4501,7 +4745,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral amb traçadors d'afinitat tumoral ||| SPECT/TC cerebral amb traçadors d'afinitat tumoral</t>
+          <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral amb traçadors d'afinitat tumoral ||| SPECT/TAC cerebral amb traçadors d'afinitat tumoral ||| SPECT/TC cerebral amb traçadors d'afinitat tumoral</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -4513,12 +4757,14 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>SPECT/TC cerebral amb traçadors d'afinitat tumoral</t>
+          <t>SPECT/TAC cerebral amb traçadors d'afinitat tumoral ||| SPECT/TC cerebral amb traçadors d'afinitat tumoral</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral de perfusió ||| SPECT/TAC cerebral de perfusió ||| SPECT/TC cerebral de perfusió</t>
@@ -4554,7 +4800,9 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral de perfusió després d'una estimulació fisiològica ||| SPECT/TAC cerebral de perfusió després d'una estimulació fisiològica ||| SPECT/TC cerebral de perfusió després d'una estimulació fisiològica</t>
@@ -4590,7 +4838,9 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr"/>
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral de perfusió després d'una intervenció farmacològica ||| SPECT/TAC cerebral de perfusió després d'una intervenció farmacològica ||| SPECT/TC cerebral de perfusió després d'una intervenció farmacològica</t>
@@ -4626,7 +4876,9 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral del transportador de dopamina ||| SPECT/TAC cerebral del transportador de dopamina ||| SPECT/TC cerebral del transportador de dopamina</t>
@@ -4662,7 +4914,9 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr"/>
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada cerebral dels neuroreceptors ||| SPECT/TAC cerebral dels neuroreceptors ||| SPECT/TC cerebral dels neuroreceptors</t>
@@ -4698,7 +4952,9 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr"/>
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada d'hemangiomes ||| SPECT/TAC d'hemangiomes ||| SPECT/TC d'hemangiomes</t>
@@ -4734,7 +4990,9 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada de la glàndula paratiroide ||| SPECT/TAC de la glàndula paratiroide ||| SPECT/TC de la glàndula paratiroide</t>
@@ -4770,7 +5028,9 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada de perfusió ||| SPECT/TAC de perfusió ||| SPECT/TC de perfusió</t>
@@ -4806,7 +5066,9 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada de ventilació ||| SPECT/TAC de ventilació ||| SPECT/TC de ventilació</t>
@@ -4842,7 +5104,9 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada dels receptors de la somatostatina en el sistema endocrí ||| SPECT/TAC dels receptors de la somatostatina en el sistema endocrí ||| SPECT/TC dels receptors de la somatostatina en el sistema endocrí</t>
@@ -4878,7 +5142,9 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada esplènica amb hematies desnaturalitzades ||| SPECT/TAC esplènica amb hematies desnaturalitzades ||| SPECT/TC esplènica amb hematies desnaturalitzades</t>
@@ -4914,7 +5180,9 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr"/>
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada hepatobiliar ||| SPECT/TAC hepatobiliar ||| SPECT/TC hepatobiliar</t>
@@ -4950,7 +5218,9 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr"/>
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada hepatoesplènica ||| SPECT/TAC hepatoesplènica ||| SPECT/TC hepatoesplènica</t>
@@ -4986,7 +5256,9 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada miocardíaca amb pirofosfats ||| SPECT/TAC miocardíaca amb pirofosfats ||| SPECT/TC miocardíaca amb pirofosfats</t>
@@ -5022,7 +5294,9 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada miocardíaca d'innervació ||| SPECT/TAC miocardíaca d'innervació ||| SPECT/TC miocardíaca d'innervació</t>
@@ -5058,7 +5332,9 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr"/>
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple - tomografia computada miocardíaca de perfusió (en repòs) ||| SPECT/TAC miocardíaca de perfusió (en repòs) ||| SPECT/TC miocardíaca de perfusió (en repòs)</t>
@@ -5094,7 +5370,9 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada miocardíaca de perfusió després d'una estimulació fisiològica ||| SPECT/TAC miocardíaca de perfusió després d'una estimulació fisiològica ||| SPECT/TC miocardíaca de perfusió després d'una estimulació fisiològica</t>
@@ -5130,7 +5408,9 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada miocardíaca de perfusió després d'una intervenció farmacològica (adenosina) ||| SPECT/TAC miocardíaca de perfusió després d'una intervenció farmacològica (adenosina) ||| SPECT/TC miocardíaca de perfusió després d'una intervenció farmacològica (adenosina)</t>
@@ -5166,7 +5446,9 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole) ||| SPECT/TAC miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole) ||| SPECT/TC miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole)</t>
@@ -5202,7 +5484,9 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr"/>
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina) ||| SPECT/TAC miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina) ||| SPECT/TC miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina)</t>
@@ -5238,7 +5522,9 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada miocardíaca de perfusió després d'una reinjecció ||| SPECT/TAC miocardíaca de perfusió després d'una reinjecció ||| SPECT/TC miocardíaca de perfusió després d'una reinjecció</t>
@@ -5274,7 +5560,9 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada òssia ||| SPECT/TAC òssia ||| SPECT/TC òssia</t>
@@ -5310,7 +5598,9 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr"/>
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada pulmonar dels receptors de la somatostatina ||| SPECT/TAC pulmonar dels receptors de la somatostatina ||| SPECT/TC pulmonar dels receptors de la somatostatina</t>
@@ -5346,7 +5636,9 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr"/>
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada renal ||| SPECT/TAC renal ||| SPECT/TC renal</t>
@@ -5382,7 +5674,9 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple / tomografia computada toràcica amb citrat de ⁶⁷Ga ||| SPECT/TAC toràcica amb citrat de ⁶⁷Ga ||| SPECT/TC toràcica amb citrat de ⁶⁷Ga</t>
@@ -5418,7 +5712,9 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple amb ¹²³I SPECT amb ¹²³I</t>
@@ -5450,7 +5746,9 @@
       <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr"/>
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora d'hormona estimulant de la tiroide ||| tomografia computada per emissió de fotó simple amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de tirotropina tomografia computada per emissió de fotó simple amb  ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de TSH ||| tomografia computada per emissió de fotó simple amb ¹²³I o ¹³¹I després de l'administració de protirelina ||| SPECT amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora d'hormona estimulant de la tiroide ||| SPECT amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de tirotropina ||| SPECT amb ¹²³I o ¹³¹I després de l'administració d'hormona alliberadora de TSH ||| SPECT amb ¹²³I o ¹³¹I després de l'administració de protirelina</t>
@@ -5486,11 +5784,12 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple amb
-¹²³I-metaiodobencilguanidina o  ¹³¹I-metaiodobencilguanidina ||| SPECT amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
+          <t>tomografia computada per emissió de fotó simple amb¹²³I-metaiodobencilguanidina o  ¹³¹I-metaiodobencilguanidina ||| SPECT amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5506,16 +5805,14 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple amb
-¹²³I-metaiodobencilguanidina o  ¹³¹I-metaiodobencilguanidina ||| SPECT amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
+          <t>tomografia computada per emissió de fotó simple amb¹²³I-metaiodobencilguanidina o  ¹³¹I-metaiodobencilguanidina ||| SPECT amb ¹²³I-MIBG o ¹³¹I-MIBG</t>
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>tomografia computada per emissió de fotó simple amb
-¹²³I-metaiodobencilguanidina o  ¹³¹I-metaiodobencilguanidina</t>
+          <t>tomografia computada per emissió de fotó simple amb¹²³I-metaiodobencilguanidina o  ¹³¹I-metaiodobencilguanidina</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -5525,7 +5822,9 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple amb anticossos monoclonals anti-antigen carcinoembrionari ||| SPECT amb anticossos monoclonals anti-ACE</t>
@@ -5561,7 +5860,9 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr"/>
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple amb citrat de ⁶⁷Ga en hematologia ||| SPECT amb citrat de ⁶⁷Ga en hematologia</t>
@@ -5597,7 +5898,9 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr"/>
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple cerebral de perfusió després d'una estimulació fisiològica ||| SPECT cerebral de perfusió després d'una estimulació fisiològica</t>
@@ -5633,7 +5936,9 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr"/>
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple cerebral de perfusió després d'una intervenció farmacològica ||| SPECT cerebral de perfusió després d'una intervenció farmacològica</t>
@@ -5669,7 +5974,9 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple cerebral del transportador de dopamina ||| SPECT cerebral del transportador de dopamina</t>
@@ -5705,7 +6012,9 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple cerebral dels neuroreceptors ||| SPECT cerebral dels neuroreceptors</t>
@@ -5741,7 +6050,9 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple d'hemangiomes ||| SPECT d'hemangiomes</t>
@@ -5777,7 +6088,9 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple de la glàndula paratiroide ||| SPECT de la glàndula paratiroide</t>
@@ -5813,7 +6126,9 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple de perfusió ||| SPECT de perfusió</t>
@@ -5849,7 +6164,9 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple de ventilació ||| SPECT de ventilació</t>
@@ -5885,7 +6202,9 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple dels receptors de la somatostatina en el sistema endocrí ||| SPECT dels receptors de la somatostatina en el sistema endocrí</t>
@@ -5921,7 +6240,9 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple esplènica amb hematies desnaturalitzades ||| SPECT esplènica amb hematies desnaturalitzades</t>
@@ -5957,7 +6278,9 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple hepatobiliar ||| SPECT hepatobiliar</t>
@@ -5993,7 +6316,9 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple hepatoesplènica ||| SPECT hepatoesplènica</t>
@@ -6029,7 +6354,9 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca amb pirofosfats ||| SPECT miocardíaca amb pirofosfats</t>
@@ -6065,7 +6392,9 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca d'innervació ||| SPECT miocardíaca d'innervació</t>
@@ -6101,7 +6430,9 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca de perfusió (en repòs) ||| SPECT miocardíaca de perfusió (en repòs)</t>
@@ -6137,7 +6468,9 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr"/>
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca de perfusió després d'una estimulació fisiològica ||| SPECT miocardíaca de perfusió després d'una estimulació fisiològica</t>
@@ -6173,7 +6506,9 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr"/>
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca de perfusió després d'una intervenció farmacològica (adenosina) ||| SPECT miocardíaca de perfusió després d'una intervenció farmacològica (adenosina)</t>
@@ -6209,7 +6544,9 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole) ||| SPECT miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole)</t>
@@ -6245,7 +6582,9 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr"/>
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina) ||| SPECT miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina)</t>
@@ -6281,7 +6620,9 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr"/>
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca de perfusió després d'una reinjecció ||| SPECT miocardíaca de perfusió després d'una reinjecció</t>
@@ -6317,7 +6658,9 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca sincronitzada de perfusió (en repòs) ||| SPECT miocardíaca sincronitzada de perfusió (en repòs)</t>
@@ -6353,7 +6696,9 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr"/>
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca sincronitzada de perfusió després d'una reinjecció ||| SPECT miocardíaca sincronitzada de perfusió després d'una reinjecció</t>
@@ -6389,7 +6734,9 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr"/>
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple miocardíaca sincronitzada després d'una estimulació fisiològica ||| SPECT miocardíaca sincronitzada de perfusió després d'una estimulació fisiològica</t>
@@ -6425,7 +6772,9 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple oncològica amb citrat de ⁶⁷Ga ||| SPECT oncològica amb citrat de ⁶⁷Ga</t>
@@ -6461,7 +6810,9 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr"/>
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple òssia ||| SPECT òssia</t>
@@ -6497,7 +6848,9 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple pulmonar dels receptors de la somatostatina ||| SPECT pulmonar dels receptors de la somatostatina</t>
@@ -6533,7 +6886,9 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr"/>
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple renal ||| SPECT renal</t>
@@ -6569,7 +6924,9 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple sincronitzada miocardíaca de perfusió després d'una intervenció farmacològica (adenosina) ||| SPECT sincronitzada miocardíaca de perfusió després d'una intervenció farmacològica (adenosina)</t>
@@ -6605,7 +6962,9 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr"/>
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple sincronitzada miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole) ||| SPECT sincronitzada miocardíaca de perfusió després d'una intervenció farmacològica (dipiridamole)</t>
@@ -6641,7 +7000,9 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr"/>
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple sincronitzada miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina) ||| SPECT sincronitzada miocardíaca de perfusió després d'una intervenció farmacològica (dobutamina)</t>
@@ -6677,7 +7038,9 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple toràcica amb citrat de ⁶⁷Ga ||| SPECT toràcica amb citrat de  ⁶⁷Ga</t>
@@ -6713,7 +7076,9 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr"/>
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>tomografia computada per emissió de fotó simple ventricular sincronitzada ||| SPECT ventricular sincronitzada</t>
@@ -6749,7 +7114,9 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr"/>
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / ressonància magnètica cardíaca amb ¹⁸F-fluorodesoxiglucosa ||| PET/RM cardíaca amb ¹⁸F-FDG</t>
@@ -6785,7 +7152,9 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr"/>
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / ressonància magnètica cerebral amb ¹⁸F-fluorodesoxiglucosa ||| PET/RM cerebral amb ¹⁸F-FDG</t>
@@ -6821,7 +7190,9 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr"/>
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / ressonància magnètica de cos sencer amb ¹⁸F-fluorodesoxiglucosa ||| PET/RM de cos sencer amb ¹⁸F-FDG</t>
@@ -6857,11 +7228,12 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr"/>
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>tomografia per emissió de positrons / tomografia computada amb
-¹¹C-acetat ||| PET/TAC amb ¹¹C-acetat ||| PET/TC amb ¹¹C-acetat</t>
+          <t>tomografia per emissió de positrons / tomografia computada amb¹¹C-acetat ||| PET/TAC amb ¹¹C-acetat ||| PET/TC amb ¹¹C-acetat</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6877,16 +7249,14 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>tomografia per emissió de positrons / tomografia computada amb
-¹¹C-acetat ||| PET/TAC amb ¹¹C-acetat ||| PET/TC amb ¹¹C-acetat</t>
+          <t>tomografia per emissió de positrons / tomografia computada amb¹¹C-acetat ||| PET/TAC amb ¹¹C-acetat ||| PET/TC amb ¹¹C-acetat</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>tomografia per emissió de positrons / tomografia computada amb
-¹¹C-acetat</t>
+          <t>tomografia per emissió de positrons / tomografia computada amb¹¹C-acetat</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -6896,7 +7266,9 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada cerebral amb ¹¹C-metionina ||| PET/TAC cerebral amb ¹¹C-metionina ||| PET/TC cerebral amb ¹¹C-metionina</t>
@@ -6932,7 +7304,9 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr"/>
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada cerebral amb ¹⁸F-dihidroxifenilalanina ||| PET/TAC cerebral amb ¹⁸F-DOPA ||| PET/TC cerebral amb  ¹⁸F-DOPA</t>
@@ -6968,7 +7342,9 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr"/>
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada cerebral amb ¹⁸F-fluorodesoxiglucosa ||| PET/TAC cerebral amb ¹⁸F-FDG ||| PET/TC cerebral amb ¹⁸F-FDG</t>
@@ -7004,7 +7380,9 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr"/>
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada cerebral amb ¹⁸F-fluoroetiltirosina ||| PET/TAC cerebral amb ¹⁸F-FET ||| PET/TC cerebral amb ¹⁸F-FET</t>
@@ -7040,7 +7418,9 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr"/>
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada cerebral de perfusió ||| PET/TAC cerebral de perfusió ||| PET/TC cerebral de perfusió</t>
@@ -7076,7 +7456,9 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada cerebral dels neuroreceptors ||| PET/TAC cerebral dels neuroreceptors ||| PET/TC cerebral dels neuroreceptors</t>
@@ -7112,7 +7494,9 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada de cos sencer amb ¹¹C-metionina ||| PET/TAC de cos sencer amb ¹¹C-metionina ||| PET/TC de cos sencer amb ¹¹C-metionina</t>
@@ -7148,7 +7532,9 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr"/>
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada de cos sencer amb ¹⁸F-colina ||| PET/TAC de cos sencer amb ¹⁸F-colina ||| PET/TC de cos sencer amb ¹⁸F-colina</t>
@@ -7184,7 +7570,9 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada de cos sencer amb ¹⁸F-dihidroxifenilalanina ||| PET/TAC de cos sencer amb ¹⁸F-DOPA ||| PET/TC de cos sencer amb ¹⁸F-DOPA</t>
@@ -7220,7 +7608,9 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr"/>
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada de cos sencer amb ¹⁸F-fluorodesoxiglucosa en hematologia ||| PET/TAC de cos sencer amb ¹⁸F-FDG en hematologia ||| PET/TC de cos sencer amb ¹⁸F-FDG en hematologia</t>
@@ -7256,7 +7646,9 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr"/>
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada de cos sencer amb ¹⁸F-fluorodesoxiglucosa en infecció ||| PET/TAC de cos sencer amb ¹⁸F-FDG en infecció ||| PET/TC de cos sencer amb ¹⁸F-FDG en infecció</t>
@@ -7292,7 +7684,9 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr"/>
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada de cos sencer amb ¹⁸F-fluorodesoxiglucosa en tumors endocrins ||| PET/TAC de cos sencer amb ¹⁸F-FDG en tumors endocrins ||| PET/TC de cos sencer amb ¹⁸F-FDG en tumors endocrins</t>
@@ -7328,7 +7722,9 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr"/>
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada de cos sencer amb ⁶⁸Ga-DOTATOC ||| tomografia per emissió de positrons / tomografia computada de cos sencer amb ⁶⁸Ga-edotreotida ||| PET/TAC de cos sencer amb ⁶⁸Ga-DOTATOC ||| PET/TAC de cos sencer amb ⁶⁸Ga-edotreotida ||| PET/TC de cos sencer amb ⁶⁸Ga-DOTATOC ||| PET/TC de cos sencer amb ⁶⁸Ga-edotreotida</t>
@@ -7364,7 +7760,9 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr"/>
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada miocardíaca amb ¹⁸F-fluorodesoxiglucosa ||| PET/TAC miocardíaca amb ¹⁸F-FDG ||| PET/TC miocardíaca amb ¹⁸F-FDG</t>
@@ -7400,7 +7798,9 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr"/>
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada miocardíaca de flux sanguini amb ¹³N-amoni (d'esforç) ||| PET/TAC miocardíaca de flux sanguini amb ¹³N-amoni (d'esforç) ||| PET/TC miocardíaca de flux sanguini amb ¹³N-amoni (d'esforç)</t>
@@ -7436,7 +7836,9 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr"/>
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada miocardíaca de flux sanguini amb ¹³N-amoni (en repòs) ||| PET/TAC miocardíaca de flux sanguini amb ¹³N-amoni (en repòs) ||| PET/TC miocardíaca de flux sanguini amb ¹³N-amoni (en repòs)</t>
@@ -7472,7 +7874,9 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr"/>
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada miocardíaca de flux sanguini amb ⁸²Rb (d'esforç) ||| PET/TAC miocardíaca de flux sanguini amb ⁸²Rb (d'esforç) ||| PET/TC miocardíaca de flux sanguini amb ⁸²Rb (d'esforç)</t>
@@ -7508,7 +7912,9 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada miocardíaca de flux sanguini amb ⁸²Rb (en repòs) ||| PET/TAC miocardíaca de flux sanguini amb ⁸²Rb (en repòs) ||| PET/TC miocardíaca de flux sanguini amb ⁸²Rb (en repòs)</t>
@@ -7544,7 +7950,9 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr"/>
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada oncològica amb ¹⁸F-fluorodesoxiglucosa ||| PET/TAC oncològica amb ¹⁸F-FDG ||| PET/TC oncològica amb ¹⁸F-FDG</t>
@@ -7580,7 +7988,9 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada òssia amb ¹⁸F-fluorodesoxiglucosa ||| PET/TAC òssia amb ¹⁸F-FDG ||| PET/TC òssia amb ¹⁸F-FDG</t>
@@ -7616,7 +8026,9 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr"/>
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons / tomografia computada pulmonar amb ¹⁸F-fluorodesoxiglucosa ||| PET/TAC pulmonar amb ¹⁸F-FDG ||| PET/TC pulmonar amb ¹⁸F-FDG</t>
@@ -7652,7 +8064,9 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons amb ¹¹C-acetat ||| PET amb ¹¹C-acetat</t>
@@ -7688,7 +8102,9 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr"/>
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons cerebral amb ¹¹C-metionina ||| PET cerebral amb ¹¹C-metionina</t>
@@ -7724,7 +8140,9 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr"/>
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons cerebral amb ¹⁸F-dihidroxifenilalanina ||| PET cerebral amb ¹⁸F-DOPA</t>
@@ -7760,7 +8178,9 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr"/>
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons cerebral amb ¹⁸F-fluorodesoxiglucosa ||| PET cerebral amb ¹⁸F-FDG</t>
@@ -7796,7 +8216,9 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr"/>
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons cerebral amb  ¹⁸F-fluoroetiltirosina ||| PET cerebral amb  ¹⁸F-FET</t>
@@ -7832,7 +8254,9 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons cerebral de perfusió ||| PET cerebral de perfusió</t>
@@ -7868,7 +8292,9 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons cerebral dels neuroreceptors ||| PET cerebral dels neuroreceptors</t>
@@ -7904,7 +8330,9 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons de cos sencer amb ¹⁸F-fluorodesoxiglucosa en hematologia ||| PET de cos sencer amb ¹⁸F-FDG en hematologia</t>
@@ -7940,7 +8368,9 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons de cos sencer amb ¹⁸F-fluorodesoxiglucosa en infecció ||| PET de cos sencer amb ¹⁸F-FDG en infecció</t>
@@ -7976,7 +8406,9 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr"/>
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons de cos sencer amb ¹⁸F-fluorodesoxiglucosa en tumors endocrins ||| PET de cos sencer amb ¹⁸F-FDG en tumors endocrins</t>
@@ -8012,7 +8444,9 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons miocardíaca amb ¹⁸F-fluorodesoxiglucosa ||| PET miocardíaca amb ¹⁸F-FDG</t>
@@ -8048,7 +8482,9 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr"/>
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons miocardíaca de flux sanguini (d'esforç) ||| PET miocardíaca de flux sanguini (d'esforç)</t>
@@ -8084,7 +8520,9 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons miocardíaca de flux sanguini (en repòs) ||| PET miocardíaca de flux sanguini (en repòs)</t>
@@ -8120,7 +8558,9 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons miocardíaca sincronitzada amb ¹⁸F-fluorodesoxiglucosa ||| PET miocardíaca sincronitzada amb ¹⁸F-FDG</t>
@@ -8156,7 +8596,9 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr"/>
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons miocardíaca sincronitzada de flux sanguini amb ¹³N-amoni (d'esforç) ||| PET miocardíaca sincronitzada de flux sanguini amb ¹³N-amoni (d'esforç)</t>
@@ -8192,7 +8634,9 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr"/>
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons miocardíaca sincronitzada de flux sanguini amb ¹³N-amoni (en repòs) ||| PET miocardíaca sincronitzada de flux sanguini amb ¹³N-amoni (en repòs)</t>
@@ -8228,7 +8672,9 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons oncològica amb ¹⁸F-fluorodesoxiglucosa ||| PET oncològica amb ¹⁸F-FDG</t>
@@ -8264,7 +8710,9 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr"/>
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons òssia amb ¹⁸F-fluorodesoxiglucosa ||| PET òssia amb ¹⁸F-FDG</t>
@@ -8300,7 +8748,9 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>tomografia per emissió de positrons pulmonar amb ¹⁸F-fluorodesoxiglucosa ||| PET pulmonar amb ¹⁸F-FDG</t>
@@ -8336,7 +8786,9 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>tractament radiometabòlic de les neoplàsies diferenciades de tiroide ||| tractament radiometabòlic de les neoplàsies diferenciades tiroidals</t>
@@ -8372,7 +8824,9 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr"/>
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>tractament radiometabòlic de lesions hepàtiques amb esferes radiomarcades</t>
@@ -8404,7 +8858,9 @@
       <c r="J231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr"/>
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>tractament radiometabòlic de patologia benigna de la glàndula tiroide ||| tractament radiometabòlic de patologia benigna de la tiroide</t>
@@ -8440,7 +8896,9 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr"/>
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>tractament radiometabòlic del dolor ossi metastàtic amb ⁸⁹Sr</t>
@@ -8472,7 +8930,9 @@
       <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>tractament radiometabòlic del dolor ossi metastàtic amb ¹⁵³Sm</t>
@@ -8504,7 +8964,9 @@
       <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr"/>
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>tractament radiometabòlic dels limfomes</t>
@@ -8536,7 +8998,9 @@
       <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr"/>
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>tractament radiometabòlic dels tumors neuroendocrins amb metaiodobencilguanidina ||| tractament radiometabòlic dels tumors neuroendocrins amb MIBG</t>
@@ -8572,7 +9036,9 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>tractament radiometabòlic endocavitari</t>
@@ -8604,7 +9070,9 @@
       <c r="J237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>ventriculografia de primer pas després d'una estimulació fisiològica</t>
@@ -8636,7 +9104,9 @@
       <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>ventriculografia de primer pas després d'una intervenció farmacològica</t>
@@ -8668,7 +9138,9 @@
       <c r="J239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>ventriculografia isotòpica d'equilibri (d'esforç)</t>
@@ -8700,7 +9172,9 @@
       <c r="J240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>ventriculografia isotòpica d'equilibri (en repòs)</t>
@@ -8732,7 +9206,9 @@
       <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>ventriculografia isotòpica d'equilibri després d'una estimulació fisiològica</t>
@@ -8764,7 +9240,9 @@
       <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>ventriculografia isotòpica d'equilibri després d'una intervenció farmacològica</t>
@@ -8796,7 +9274,9 @@
       <c r="J243" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>ventriculografia isotòpica de primer pas (d'esforç)</t>
@@ -8828,7 +9308,9 @@
       <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>ventriculografia isotòpica de primer pas (en repòs)</t>
@@ -8860,10 +9342,12 @@
       <c r="J245" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr"/>
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>volum globular ||| volum globular total</t>
+          <t>volum globular ||| volum eritrocític ||| volum globular total</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -8879,7 +9363,7 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>volum globular ||| volum globular total</t>
+          <t>volum globular ||| volum eritrocític ||| volum globular total</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
@@ -8891,7 +9375,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>volum globular total</t>
+          <t>volum eritrocític ||| volum globular total</t>
         </is>
       </c>
     </row>
